--- a/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.198</v>
+        <v>1.275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.898</v>
+        <v>0.908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.889</v>
+        <v>0.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.363</v>
+        <v>1.351</v>
       </c>
       <c r="H2" t="n">
-        <v>1.172</v>
+        <v>1.125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.549</v>
+        <v>0.542</v>
       </c>
       <c r="J2" t="n">
-        <v>1.081</v>
+        <v>0.924</v>
       </c>
       <c r="K2" t="n">
-        <v>0.795</v>
+        <v>0.884</v>
       </c>
       <c r="L2" t="n">
-        <v>0.29</v>
+        <v>0.283</v>
       </c>
       <c r="M2" t="n">
-        <v>0.201</v>
+        <v>0.216</v>
       </c>
       <c r="N2" t="n">
-        <v>0.172</v>
+        <v>0.155</v>
       </c>
       <c r="O2" t="n">
-        <v>0.186</v>
+        <v>0.209</v>
       </c>
       <c r="P2" t="n">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.377</v>
+        <v>0.393</v>
       </c>
       <c r="R2" t="n">
-        <v>0.227</v>
+        <v>0.226</v>
       </c>
       <c r="S2" t="n">
-        <v>0.176</v>
+        <v>0.168</v>
       </c>
       <c r="T2" t="n">
-        <v>0.256</v>
+        <v>0.242</v>
       </c>
       <c r="U2" t="n">
-        <v>0.178</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.173</v>
+        <v>3.486</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>1.438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E3" t="n">
-        <v>1.297</v>
+        <v>1.551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.657</v>
       </c>
       <c r="G3" t="n">
-        <v>3.364</v>
+        <v>3.343</v>
       </c>
       <c r="H3" t="n">
-        <v>2.376</v>
+        <v>2.225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.604</v>
+        <v>0.584</v>
       </c>
       <c r="J3" t="n">
-        <v>2.223</v>
+        <v>1.646</v>
       </c>
       <c r="K3" t="n">
-        <v>1.18</v>
+        <v>1.599</v>
       </c>
       <c r="L3" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="M3" t="n">
-        <v>0.168</v>
+        <v>0.145</v>
       </c>
       <c r="N3" t="n">
-        <v>0.118</v>
+        <v>0.076</v>
       </c>
       <c r="O3" t="n">
-        <v>0.109</v>
+        <v>0.137</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.43</v>
+        <v>0.531</v>
       </c>
       <c r="R3" t="n">
         <v>0.167</v>
       </c>
       <c r="S3" t="n">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="T3" t="n">
-        <v>0.272</v>
+        <v>0.264</v>
       </c>
       <c r="U3" t="n">
-        <v>0.114</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="4">
@@ -676,64 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.885</v>
+        <v>0.874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796</v>
+        <v>0.79</v>
       </c>
       <c r="D4" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.879</v>
+        <v>0.855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.772</v>
+        <v>0.776</v>
       </c>
       <c r="G4" t="n">
         <v>0.884</v>
       </c>
       <c r="H4" t="n">
-        <v>0.711</v>
+        <v>0.73</v>
       </c>
       <c r="I4" t="n">
-        <v>0.75</v>
+        <v>0.758</v>
       </c>
       <c r="J4" t="n">
-        <v>0.796</v>
+        <v>0.845</v>
       </c>
       <c r="K4" t="n">
-        <v>0.793</v>
+        <v>0.723</v>
       </c>
       <c r="L4" t="n">
         <v>0.99</v>
       </c>
       <c r="M4" t="n">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
       <c r="N4" t="n">
-        <v>0.967</v>
+        <v>0.979</v>
       </c>
       <c r="O4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.992</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.991</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
       <c r="R4" t="n">
         <v>0.984</v>
       </c>
       <c r="S4" t="n">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
       <c r="T4" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="U4" t="n">
-        <v>0.981</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5">

--- a/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,81 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,63 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.275</v>
+        <v>0.393</v>
       </c>
       <c r="C2" t="n">
-        <v>0.908</v>
+        <v>0.226</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589</v>
+        <v>0.168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.351</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.149</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="U2" t="n">
         <v>0.154</v>
       </c>
     </row>
@@ -609,63 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.486</v>
+        <v>0.531</v>
       </c>
       <c r="C3" t="n">
-        <v>1.438</v>
+        <v>0.167</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>1.551</v>
+        <v>0.264</v>
       </c>
       <c r="F3" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.343</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.646</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.599</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.361</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.531</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="U3" t="n">
         <v>0.064</v>
       </c>
     </row>
@@ -676,63 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.874</v>
+        <v>0.987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.79</v>
+        <v>0.984</v>
       </c>
       <c r="D4" t="n">
-        <v>0.673</v>
+        <v>0.976</v>
       </c>
       <c r="E4" t="n">
-        <v>0.855</v>
+        <v>0.985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.979</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="U4" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -743,63 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>9.153</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>8.58</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>1.617</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>3.83</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.914</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.386</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.581</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.744</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8.965999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.566</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.936</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.574</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.153</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.617</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="U5" t="n">
         <v>4.192</v>
       </c>
     </row>
@@ -810,63 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>111.721</v>
       </c>
       <c r="C6" t="n">
-        <v>57.593</v>
+        <v>86.53</v>
       </c>
       <c r="D6" t="n">
-        <v>7.548</v>
+        <v>3.766</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>19.284</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>95.10899999999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76.441</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.867</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16.923</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.964</v>
-      </c>
-      <c r="L6" t="n">
-        <v>106.414</v>
-      </c>
-      <c r="M6" t="n">
-        <v>71.818</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="P6" t="n">
-        <v>20.988</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>111.721</v>
-      </c>
-      <c r="R6" t="n">
-        <v>86.53</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="T6" t="n">
-        <v>19.284</v>
-      </c>
-      <c r="U6" t="n">
         <v>22.676</v>
       </c>
     </row>
@@ -877,63 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.147</v>
+        <v>-1.682</v>
       </c>
       <c r="C7" t="n">
-        <v>-7.492</v>
+        <v>-7.131</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.846</v>
+        <v>0.004</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.258</v>
+        <v>-0.187</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.096</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-2.312</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-8.545999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.185</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-0.632</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-2.373</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-1.821</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-7.099</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.727</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-1.578</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-1.682</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-7.131</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.187</v>
-      </c>
-      <c r="U7" t="n">
         <v>-2.674</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.393</v>
+        <v>0.381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226</v>
+        <v>0.248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.168</v>
+        <v>0.194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242</v>
+        <v>0.244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.154</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.531</v>
+        <v>0.681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.167</v>
+        <v>0.489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.264</v>
+        <v>0.489</v>
       </c>
       <c r="F3" t="n">
-        <v>0.064</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.987</v>
+        <v>0.499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.984</v>
+        <v>0.242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.976</v>
+        <v>0.134</v>
       </c>
       <c r="E4" t="n">
-        <v>0.985</v>
+        <v>0.299</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.153</v>
+        <v>0.988</v>
       </c>
       <c r="C5" t="n">
-        <v>8.58</v>
+        <v>0.978</v>
       </c>
       <c r="D5" t="n">
-        <v>1.617</v>
+        <v>0.965</v>
       </c>
       <c r="E5" t="n">
-        <v>3.83</v>
+        <v>0.982</v>
       </c>
       <c r="F5" t="n">
-        <v>4.192</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.721</v>
+        <v>9.153</v>
       </c>
       <c r="C6" t="n">
-        <v>86.53</v>
+        <v>8.58</v>
       </c>
       <c r="D6" t="n">
-        <v>3.766</v>
+        <v>1.617</v>
       </c>
       <c r="E6" t="n">
-        <v>19.284</v>
+        <v>3.83</v>
       </c>
       <c r="F6" t="n">
-        <v>22.676</v>
+        <v>4.192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10.564</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.294</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.382</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>111.721</v>
+      </c>
+      <c r="C8" t="n">
+        <v>86.53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.284</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.676</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-1.682</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-7.131</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.004</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.187</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-2.674</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.381</v>
+        <v>0.374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248</v>
+        <v>0.243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194</v>
+        <v>0.158</v>
       </c>
       <c r="E2" t="n">
-        <v>0.244</v>
+        <v>0.208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.191</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.681</v>
+        <v>0.669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.489</v>
+        <v>0.486</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.268</v>
       </c>
       <c r="E3" t="n">
-        <v>0.489</v>
+        <v>0.361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.349</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.499</v>
+        <v>0.454</v>
       </c>
       <c r="C4" t="n">
-        <v>0.242</v>
+        <v>0.252</v>
       </c>
       <c r="D4" t="n">
-        <v>0.134</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.299</v>
+        <v>0.138</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.978</v>
+        <v>0.977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.965</v>
+        <v>0.981</v>
       </c>
       <c r="E5" t="n">
-        <v>0.982</v>
+        <v>0.992</v>
       </c>
       <c r="F5" t="n">
-        <v>0.979</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.374</v>
+        <v>0.347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.243</v>
+        <v>0.234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.158</v>
+        <v>0.156</v>
       </c>
       <c r="E2" t="n">
-        <v>0.208</v>
+        <v>0.199</v>
       </c>
       <c r="F2" t="n">
-        <v>0.142</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.669</v>
+        <v>0.624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.486</v>
+        <v>0.392</v>
       </c>
       <c r="D3" t="n">
-        <v>0.268</v>
+        <v>0.261</v>
       </c>
       <c r="E3" t="n">
-        <v>0.361</v>
+        <v>0.327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.231</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.454</v>
+        <v>0.411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.252</v>
+        <v>0.158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.138</v>
+        <v>0.113</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="C5" t="n">
-        <v>0.977</v>
+        <v>0.985</v>
       </c>
       <c r="D5" t="n">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="F5" t="n">
         <v>0.991</v>
